--- a/Experiments/Measurements/Single Banner Horizontal/V path/Antenna_2/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Horizontal/V path/Antenna_2/Transformed_Coordinates.xlsx
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>188.2080271954996</v>
+        <v>188.2080271954995</v>
       </c>
       <c r="H12" t="n">
-        <v>50.31566273363677</v>
+        <v>50.31566273363672</v>
       </c>
     </row>
     <row r="13">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>108.9441760960378</v>
+        <v>108.9441760960373</v>
       </c>
       <c r="H14" t="n">
-        <v>112.2986673375717</v>
+        <v>112.2986673375716</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>126.5424866420293</v>
+        <v>126.5424866420289</v>
       </c>
       <c r="H15" t="n">
-        <v>95.40030830285693</v>
+        <v>95.40030830285679</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>136.9376846574075</v>
+        <v>136.9376846574071</v>
       </c>
       <c r="H16" t="n">
-        <v>78.0567336677273</v>
+        <v>78.05673366772713</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>132.2243752486401</v>
+        <v>132.2243752486397</v>
       </c>
       <c r="H17" t="n">
-        <v>63.07798302274624</v>
+        <v>63.07798302274605</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>206.4684095739354</v>
+        <v>206.4684095739356</v>
       </c>
       <c r="H18" t="n">
-        <v>52.94070588249112</v>
+        <v>52.94070588249121</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>140.5956843364855</v>
+        <v>140.5956843364857</v>
       </c>
       <c r="H19" t="n">
-        <v>147.1942113880323</v>
+        <v>147.1942113880324</v>
       </c>
     </row>
     <row r="20">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>180.5979315138231</v>
+        <v>180.5979315138234</v>
       </c>
       <c r="H24" t="n">
-        <v>88.24907519696286</v>
+        <v>88.24907519696312</v>
       </c>
     </row>
     <row r="25">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>97.95213717048414</v>
+        <v>97.95213717048394</v>
       </c>
       <c r="H29" t="n">
-        <v>85.05637606954319</v>
+        <v>85.05637606954312</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>138.0293048869166</v>
+        <v>138.0293048869164</v>
       </c>
       <c r="H30" t="n">
-        <v>84.60206214046207</v>
+        <v>84.602062140462</v>
       </c>
     </row>
     <row r="31">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>109.7398383829424</v>
+        <v>109.7398383829422</v>
       </c>
       <c r="H32" t="n">
-        <v>91.73482097701161</v>
+        <v>91.73482097701148</v>
       </c>
     </row>
     <row r="33">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>139.9871841307159</v>
+        <v>139.9871841307156</v>
       </c>
       <c r="H34" t="n">
-        <v>68.34678260637195</v>
+        <v>68.34678260637183</v>
       </c>
     </row>
     <row r="35">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>50.14692946084114</v>
+        <v>50.14692946084092</v>
       </c>
       <c r="H35" t="n">
         <v>111.6364523188584</v>
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>156.1014596903487</v>
+        <v>156.1014596903485</v>
       </c>
       <c r="H36" t="n">
-        <v>97.06748867530344</v>
+        <v>97.06748867530339</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>153.1852303586452</v>
+        <v>153.1852303586451</v>
       </c>
       <c r="H37" t="n">
-        <v>73.93951219140946</v>
+        <v>73.93951219140936</v>
       </c>
     </row>
     <row r="38">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>131.3783132156544</v>
+        <v>131.3783132156548</v>
       </c>
       <c r="H38" t="n">
-        <v>68.092351130037</v>
+        <v>68.09235113003716</v>
       </c>
     </row>
     <row r="39">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>149.4642963806966</v>
+        <v>149.4642963806968</v>
       </c>
       <c r="H40" t="n">
-        <v>77.7888699161483</v>
+        <v>77.78886991614836</v>
       </c>
     </row>
     <row r="41">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>123.9055029656753</v>
+        <v>123.9055029656757</v>
       </c>
       <c r="H45" t="n">
-        <v>100.2580758940052</v>
+        <v>100.2580758940053</v>
       </c>
     </row>
     <row r="46">
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>29.34337905939253</v>
+        <v>29.34337905939275</v>
       </c>
       <c r="H46" t="n">
         <v>102.0784205559799</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>135.9043778343267</v>
+        <v>135.9043778343272</v>
       </c>
       <c r="H47" t="n">
-        <v>82.869534439768</v>
+        <v>82.86953443976812</v>
       </c>
     </row>
     <row r="48">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>-5.738694359782087</v>
+        <v>-5.738694359782303</v>
       </c>
       <c r="H48" t="n">
-        <v>96.24630795859055</v>
+        <v>96.24630795859053</v>
       </c>
     </row>
     <row r="49">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>127.2916843737331</v>
+        <v>127.2916843737328</v>
       </c>
       <c r="H50" t="n">
-        <v>71.77125277123544</v>
+        <v>71.7712527712354</v>
       </c>
     </row>
     <row r="51">
